--- a/Results/Calculation/20-noun-filter-beda.xlsx
+++ b/Results/Calculation/20-noun-filter-beda.xlsx
@@ -1,15 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Farza Nurifan\Documents\OneDrive\Dokumen\Code Paper\Tugas Akhir\Results\Calculation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D59A0D4-B5FE-4FB1-8E66-F9C8E3BBB5FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3015" yWindow="2340" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -43,8 +59,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,12 +77,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -96,17 +118,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -153,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,9 +217,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,6 +269,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,14 +462,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -456,7 +526,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -485,7 +555,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -508,13 +578,13 @@
         <v>0.84</v>
       </c>
       <c r="H4">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="I4">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,6 +611,20 @@
       </c>
       <c r="I5">
         <v>0.82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F7" s="2">
+        <f>AVERAGE(F2:F5)</f>
+        <v>0.70750000000000002</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" ref="G7:H7" si="0">AVERAGE(G2:G5)</f>
+        <v>0.87250000000000005</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.77500000000000002</v>
       </c>
     </row>
   </sheetData>
